--- a/check_report.xlsx
+++ b/check_report.xlsx
@@ -4285,6 +4285,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">

--- a/check_report.xlsx
+++ b/check_report.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checkList和进口发票比对" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3968,7 +3968,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="9" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
